--- a/capiq_data/in_process_data/IQ792424.xlsx
+++ b/capiq_data/in_process_data/IQ792424.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34B0EB5-B4EF-4A3A-A5FC-FD1EE5030014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB2D1A-69B3-4F56-ADE6-37B53B3BFD5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"807fe142-1492-4ccf-a4d1-24f6bd46b362"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"bd299371-1d02-466e-b510-35f2468162e6"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$64</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$64</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$64</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$64</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$64</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$64</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$64</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$64</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$64</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$64</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$64</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$64</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$64</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$64</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$64</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$64</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$64</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$64</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$64</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$64</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$64</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$64</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$64</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$64</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$64</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$64</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,72 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,7 +799,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>38442</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -742,28 +808,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1990</v>
       </c>
       <c r="E2">
-        <v>3747</v>
+        <v>1681</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="G2">
-        <v>13779</v>
+        <v>2796</v>
       </c>
       <c r="H2">
-        <v>25302</v>
+        <v>7436</v>
       </c>
       <c r="I2">
-        <v>2761</v>
+        <v>969</v>
       </c>
       <c r="J2">
-        <v>6036</v>
+        <v>2698</v>
       </c>
       <c r="K2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,28 +838,28 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4831</v>
+        <v>2137</v>
       </c>
       <c r="O2">
-        <v>13706</v>
+        <v>6603</v>
       </c>
       <c r="P2">
-        <v>6082</v>
+        <v>3528</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>38442</v>
       </c>
       <c r="S2">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>11596</v>
+        <v>833</v>
       </c>
       <c r="U2">
-        <v>4222</v>
+        <v>29</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -811,81 +877,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>38625</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>663</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>11380</v>
+        <v>1442</v>
       </c>
       <c r="E3">
-        <v>4764</v>
+        <v>1329</v>
       </c>
       <c r="F3">
-        <v>1343</v>
+        <v>82</v>
       </c>
       <c r="G3">
-        <v>15973</v>
+        <v>3041</v>
       </c>
       <c r="H3">
-        <v>27948</v>
+        <v>6726</v>
       </c>
       <c r="I3">
-        <v>4099</v>
+        <v>728</v>
       </c>
       <c r="J3">
-        <v>5805</v>
+        <v>2751</v>
       </c>
       <c r="K3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-66</v>
       </c>
       <c r="N3">
-        <v>6360</v>
+        <v>1984</v>
       </c>
       <c r="O3">
-        <v>15235</v>
+        <v>5838</v>
       </c>
       <c r="P3">
-        <v>6109</v>
+        <v>3355</v>
       </c>
       <c r="Q3">
-        <v>161</v>
+        <v>505</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>38625</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>12713</v>
+        <v>888</v>
       </c>
       <c r="U3">
-        <v>4383</v>
+        <v>505</v>
       </c>
       <c r="V3">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>28</v>
+        <v>2299</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,374 +960,374 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>663</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>38717</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>804</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>13306</v>
+        <v>2306</v>
       </c>
       <c r="E4">
-        <v>4901</v>
+        <v>1329</v>
       </c>
       <c r="F4">
-        <v>1602</v>
+        <v>295</v>
       </c>
       <c r="G4">
-        <v>16513</v>
+        <v>3291</v>
       </c>
       <c r="H4">
-        <v>28475</v>
+        <v>7179</v>
       </c>
       <c r="I4">
-        <v>3999</v>
+        <v>871</v>
       </c>
       <c r="J4">
-        <v>5813</v>
+        <v>2745</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="N4">
-        <v>5979</v>
+        <v>2298</v>
       </c>
       <c r="O4">
-        <v>14849</v>
+        <v>6235</v>
       </c>
       <c r="P4">
-        <v>5865</v>
+        <v>3348</v>
       </c>
       <c r="Q4">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>38717</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>13626</v>
+        <v>944</v>
       </c>
       <c r="U4">
-        <v>4687</v>
+        <v>590</v>
       </c>
       <c r="V4">
-        <v>1026</v>
+        <v>305</v>
       </c>
       <c r="W4">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-327</v>
+        <v>-58</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="AA4">
-        <v>804</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>38807</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>895</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>12516</v>
+        <v>2592</v>
       </c>
       <c r="E5">
-        <v>4038</v>
+        <v>1486</v>
       </c>
       <c r="F5">
-        <v>1782</v>
+        <v>244</v>
       </c>
       <c r="G5">
-        <v>16718</v>
+        <v>3235</v>
       </c>
       <c r="H5">
-        <v>28267</v>
+        <v>7179</v>
       </c>
       <c r="I5">
-        <v>3307</v>
+        <v>856</v>
       </c>
       <c r="J5">
-        <v>5782</v>
+        <v>2667</v>
       </c>
       <c r="K5">
-        <v>49</v>
+        <v>528</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="N5">
-        <v>5178</v>
+        <v>2271</v>
       </c>
       <c r="O5">
-        <v>14185</v>
+        <v>6197</v>
       </c>
       <c r="P5">
-        <v>5833</v>
+        <v>3319</v>
       </c>
       <c r="Q5">
-        <v>922</v>
+        <v>-84</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>38807</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>14082</v>
+        <v>982</v>
       </c>
       <c r="U5">
-        <v>5609</v>
+        <v>506</v>
       </c>
       <c r="V5">
-        <v>1531</v>
+        <v>82</v>
       </c>
       <c r="W5">
-        <v>-114</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-118</v>
+        <v>-18</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-59</v>
       </c>
       <c r="AA5">
-        <v>895</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>38898</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-215</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>10981</v>
+        <v>2676</v>
       </c>
       <c r="E6">
-        <v>3778</v>
+        <v>1593</v>
       </c>
       <c r="F6">
-        <v>724</v>
+        <v>311</v>
       </c>
       <c r="G6">
-        <v>11435</v>
+        <v>3360</v>
       </c>
       <c r="H6">
-        <v>22839</v>
+        <v>7325</v>
       </c>
       <c r="I6">
-        <v>3414</v>
+        <v>920</v>
       </c>
       <c r="J6">
-        <v>3980</v>
+        <v>2551</v>
       </c>
       <c r="K6">
-        <v>48</v>
+        <v>586</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="N6">
-        <v>5018</v>
+        <v>2395</v>
       </c>
       <c r="O6">
-        <v>12192</v>
+        <v>6274</v>
       </c>
       <c r="P6">
-        <v>4032</v>
+        <v>3244</v>
       </c>
       <c r="Q6">
-        <v>-4544</v>
+        <v>-27</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>38898</v>
       </c>
       <c r="S6">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>10647</v>
+        <v>1051</v>
       </c>
       <c r="U6">
-        <v>1065</v>
+        <v>479</v>
       </c>
       <c r="V6">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W6">
-        <v>-142</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-4538</v>
+        <v>-4</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-76</v>
       </c>
       <c r="AA6">
-        <v>-215</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>38990</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>600</v>
+        <v>148</v>
       </c>
       <c r="D7">
-        <v>11734</v>
+        <v>2620</v>
       </c>
       <c r="E7">
-        <v>4209</v>
+        <v>1619</v>
       </c>
       <c r="F7">
-        <v>1202</v>
+        <v>292</v>
       </c>
       <c r="G7">
-        <v>12098</v>
+        <v>3378</v>
       </c>
       <c r="H7">
-        <v>23609</v>
+        <v>7334</v>
       </c>
       <c r="I7">
-        <v>3545</v>
+        <v>828</v>
       </c>
       <c r="J7">
-        <v>3984</v>
+        <v>2410</v>
       </c>
       <c r="K7">
-        <v>42</v>
+        <v>578</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-153</v>
       </c>
       <c r="N7">
-        <v>4946</v>
+        <v>2350</v>
       </c>
       <c r="O7">
-        <v>12246</v>
+        <v>6050</v>
       </c>
       <c r="P7">
-        <v>4026</v>
+        <v>3082</v>
       </c>
       <c r="Q7">
-        <v>605</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>38990</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>11363</v>
+        <v>1284</v>
       </c>
       <c r="U7">
-        <v>1670</v>
+        <v>480</v>
       </c>
       <c r="V7">
-        <v>913</v>
+        <v>256</v>
       </c>
       <c r="W7">
-        <v>-143</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-140</v>
+        <v>-171</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="AA7">
-        <v>600</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>39082</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>770</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>11248</v>
+        <v>2607</v>
       </c>
       <c r="E8">
-        <v>3888</v>
+        <v>1551</v>
       </c>
       <c r="F8">
-        <v>1587</v>
+        <v>254</v>
       </c>
       <c r="G8">
-        <v>12366</v>
+        <v>3537</v>
       </c>
       <c r="H8">
-        <v>23545</v>
+        <v>7427</v>
       </c>
       <c r="I8">
-        <v>3004</v>
+        <v>880</v>
       </c>
       <c r="J8">
-        <v>4305</v>
+        <v>2384</v>
       </c>
       <c r="K8">
-        <v>48</v>
+        <v>591</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,120 +1336,120 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4244</v>
+        <v>2463</v>
       </c>
       <c r="O8">
-        <v>12002</v>
+        <v>6157</v>
       </c>
       <c r="P8">
-        <v>4353</v>
+        <v>3082</v>
       </c>
       <c r="Q8">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>39082</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="T8">
-        <v>11543</v>
+        <v>1270</v>
       </c>
       <c r="U8">
-        <v>1950</v>
+        <v>670</v>
       </c>
       <c r="V8">
-        <v>504</v>
+        <v>234</v>
       </c>
       <c r="W8">
-        <v>-230</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA8">
-        <v>770</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>39172</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>846</v>
+        <v>182</v>
       </c>
       <c r="D9">
-        <v>11273</v>
+        <v>2841</v>
       </c>
       <c r="E9">
-        <v>4083</v>
+        <v>1712</v>
       </c>
       <c r="F9">
-        <v>1603</v>
+        <v>379</v>
       </c>
       <c r="G9">
-        <v>13395</v>
+        <v>3674</v>
       </c>
       <c r="H9">
-        <v>25104</v>
+        <v>7517</v>
       </c>
       <c r="I9">
-        <v>3297</v>
+        <v>1251</v>
       </c>
       <c r="J9">
-        <v>4305</v>
+        <v>2392</v>
       </c>
       <c r="K9">
-        <v>47</v>
+        <v>587</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-66</v>
       </c>
       <c r="N9">
-        <v>4825</v>
+        <v>2384</v>
       </c>
       <c r="O9">
-        <v>12743</v>
+        <v>6053</v>
       </c>
       <c r="P9">
-        <v>4352</v>
+        <v>2979</v>
       </c>
       <c r="Q9">
-        <v>1577</v>
+        <v>30</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>39172</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>12361</v>
+        <v>1464</v>
       </c>
       <c r="U9">
-        <v>3527</v>
+        <v>700</v>
       </c>
       <c r="V9">
-        <v>2042</v>
+        <v>166</v>
       </c>
       <c r="W9">
-        <v>-230</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-234</v>
+        <v>-95</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,164 +1458,164 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>846</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>39263</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>632</v>
+        <v>150</v>
       </c>
       <c r="D10">
-        <v>11097</v>
+        <v>3044</v>
       </c>
       <c r="E10">
-        <v>3904</v>
+        <v>1844</v>
       </c>
       <c r="F10">
-        <v>1362</v>
+        <v>395</v>
       </c>
       <c r="G10">
-        <v>12286</v>
+        <v>3256</v>
       </c>
       <c r="H10">
-        <v>24220</v>
+        <v>7014</v>
       </c>
       <c r="I10">
-        <v>3285</v>
+        <v>1286</v>
       </c>
       <c r="J10">
-        <v>4304</v>
+        <v>1790</v>
       </c>
       <c r="K10">
-        <v>95</v>
+        <v>622</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-1257</v>
       </c>
       <c r="N10">
-        <v>5096</v>
+        <v>2465</v>
       </c>
       <c r="O10">
-        <v>13041</v>
+        <v>5522</v>
       </c>
       <c r="P10">
-        <v>4400</v>
+        <v>2412</v>
       </c>
       <c r="Q10">
-        <v>-795</v>
+        <v>-561</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>39263</v>
       </c>
       <c r="S10">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>11179</v>
+        <v>1492</v>
       </c>
       <c r="U10">
-        <v>2732</v>
+        <v>139</v>
       </c>
       <c r="V10">
-        <v>1328</v>
+        <v>203</v>
       </c>
       <c r="W10">
-        <v>-230</v>
+        <v>-140</v>
       </c>
       <c r="X10">
-        <v>-1826</v>
+        <v>-728</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AA10">
-        <v>632</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>39355</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>901</v>
+        <v>361</v>
       </c>
       <c r="D11">
-        <v>10669</v>
+        <v>2948</v>
       </c>
       <c r="E11">
-        <v>3878</v>
+        <v>1776</v>
       </c>
       <c r="F11">
-        <v>1516</v>
+        <v>405</v>
       </c>
       <c r="G11">
-        <v>12655</v>
+        <v>4282</v>
       </c>
       <c r="H11">
-        <v>24677</v>
+        <v>7977</v>
       </c>
       <c r="I11">
-        <v>3217</v>
+        <v>1229</v>
       </c>
       <c r="J11">
-        <v>4307</v>
+        <v>1164</v>
       </c>
       <c r="K11">
-        <v>115</v>
+        <v>1945</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-264</v>
       </c>
       <c r="N11">
-        <v>5107</v>
+        <v>3910</v>
       </c>
       <c r="O11">
-        <v>12997</v>
+        <v>6244</v>
       </c>
       <c r="P11">
-        <v>4423</v>
+        <v>3109</v>
       </c>
       <c r="Q11">
-        <v>147</v>
+        <v>1012</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>39355</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>11680</v>
+        <v>1733</v>
       </c>
       <c r="U11">
-        <v>2879</v>
+        <v>1151</v>
       </c>
       <c r="V11">
-        <v>799</v>
+        <v>415</v>
       </c>
       <c r="W11">
-        <v>-229</v>
+        <v>-75</v>
       </c>
       <c r="X11">
-        <v>-234</v>
+        <v>664</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1624,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>901</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>39447</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>929</v>
+        <v>-350.98928999999998</v>
       </c>
       <c r="D12">
-        <v>11103</v>
+        <v>4221.1524300000001</v>
       </c>
       <c r="E12">
-        <v>4023</v>
+        <v>4165</v>
       </c>
       <c r="F12">
-        <v>1607</v>
+        <v>202.30394000000001</v>
       </c>
       <c r="G12">
-        <v>13032</v>
+        <v>11994</v>
       </c>
       <c r="H12">
-        <v>25048</v>
+        <v>39728</v>
       </c>
       <c r="I12">
-        <v>3324</v>
+        <v>4324</v>
       </c>
       <c r="J12">
-        <v>4306</v>
+        <v>21541</v>
       </c>
       <c r="K12">
-        <v>114</v>
+        <v>2415</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1668,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5036</v>
+        <v>9698</v>
       </c>
       <c r="O12">
-        <v>12979</v>
+        <v>37663</v>
       </c>
       <c r="P12">
-        <v>4421</v>
+        <v>24415</v>
       </c>
       <c r="Q12">
-        <v>354</v>
+        <v>-972.40526</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>39447</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>7340</v>
       </c>
       <c r="T12">
-        <v>12069</v>
+        <v>2065</v>
       </c>
       <c r="U12">
-        <v>3233</v>
+        <v>560</v>
       </c>
       <c r="V12">
-        <v>1246</v>
+        <v>35.12323</v>
       </c>
       <c r="W12">
-        <v>-261</v>
+        <v>-208.03506999999999</v>
       </c>
       <c r="X12">
-        <v>-508</v>
+        <v>10648.18802</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,81 +1707,81 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>929</v>
+        <v>-350.98928999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>39538</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>853</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>11152</v>
+        <v>12765</v>
       </c>
       <c r="E13">
-        <v>4041</v>
+        <v>5465.7696900000001</v>
       </c>
       <c r="F13">
-        <v>1462</v>
+        <v>691</v>
       </c>
       <c r="G13">
-        <v>14625</v>
+        <v>14244.55876</v>
       </c>
       <c r="H13">
-        <v>26811</v>
+        <v>42383.854370000001</v>
       </c>
       <c r="I13">
-        <v>3241</v>
+        <v>4683.8148000000001</v>
       </c>
       <c r="J13">
-        <v>5774</v>
+        <v>22358.527900000001</v>
       </c>
       <c r="K13">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>-325</v>
       </c>
       <c r="N13">
-        <v>5378</v>
+        <v>10388.603090000001</v>
       </c>
       <c r="O13">
-        <v>14902</v>
+        <v>39776.810449999997</v>
       </c>
       <c r="P13">
-        <v>5889</v>
+        <v>26223.981</v>
       </c>
       <c r="Q13">
-        <v>1181</v>
+        <v>-270</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>39538</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>11909</v>
+        <v>2607.0439299999998</v>
       </c>
       <c r="U13">
-        <v>4414</v>
+        <v>2410.7637500000001</v>
       </c>
       <c r="V13">
-        <v>1116</v>
+        <v>-177</v>
       </c>
       <c r="W13">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>452</v>
+        <v>736</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1790,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>853</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>39629</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>1174</v>
+        <v>-14</v>
       </c>
       <c r="D14">
-        <v>11138</v>
+        <v>15599</v>
       </c>
       <c r="E14">
-        <v>4030</v>
+        <v>6105.9092000000001</v>
       </c>
       <c r="F14">
-        <v>1537</v>
+        <v>794</v>
       </c>
       <c r="G14">
-        <v>14599</v>
+        <v>16001.258949999999</v>
       </c>
       <c r="H14">
-        <v>27298</v>
+        <v>44134.07821</v>
       </c>
       <c r="I14">
-        <v>3572</v>
+        <v>5397.7496300000003</v>
       </c>
       <c r="J14">
-        <v>5776</v>
+        <v>21065.386729999998</v>
       </c>
       <c r="K14">
-        <v>58</v>
+        <v>3652.5297</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1834,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5510</v>
+        <v>12696.514279999999</v>
       </c>
       <c r="O14">
-        <v>14784</v>
+        <v>40991.4234</v>
       </c>
       <c r="P14">
-        <v>5835</v>
+        <v>26146.825079999999</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>666</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>39629</v>
       </c>
       <c r="S14">
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>12514</v>
+        <v>3142.65481</v>
       </c>
       <c r="U14">
-        <v>4450</v>
+        <v>2527.34283</v>
       </c>
       <c r="V14">
-        <v>1674</v>
+        <v>592</v>
       </c>
       <c r="W14">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-1299</v>
+        <v>237</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,42 +1873,42 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1174</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>39721</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>945</v>
+        <v>-136</v>
       </c>
       <c r="D15">
-        <v>11135</v>
+        <v>14086</v>
       </c>
       <c r="E15">
-        <v>4141</v>
+        <v>5179.08662</v>
       </c>
       <c r="F15">
-        <v>1558</v>
+        <v>618</v>
       </c>
       <c r="G15">
-        <v>14993</v>
+        <v>13989.16332</v>
       </c>
       <c r="H15">
-        <v>27827</v>
+        <v>40996.411229999998</v>
       </c>
       <c r="I15">
-        <v>3642</v>
+        <v>4026.45838</v>
       </c>
       <c r="J15">
-        <v>6766</v>
+        <v>21418.61938</v>
       </c>
       <c r="K15">
-        <v>58</v>
+        <v>3324.1854899999998</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1917,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5720</v>
+        <v>10438.39279</v>
       </c>
       <c r="O15">
-        <v>16001</v>
+        <v>38527.90092</v>
       </c>
       <c r="P15">
-        <v>6827</v>
+        <v>26193.793539999999</v>
       </c>
       <c r="Q15">
-        <v>-1748</v>
+        <v>-333</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>39721</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>11826</v>
+        <v>2468.5103100000001</v>
       </c>
       <c r="U15">
-        <v>2702</v>
+        <v>2019.56231</v>
       </c>
       <c r="V15">
-        <v>801</v>
+        <v>-462</v>
       </c>
       <c r="W15">
-        <v>-327</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-550</v>
+        <v>836</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-1397</v>
+        <v>-205</v>
       </c>
       <c r="AA15">
-        <v>945</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>39813</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>1178</v>
+        <v>-7190</v>
       </c>
       <c r="D16">
-        <v>12117</v>
+        <v>8256</v>
       </c>
       <c r="E16">
-        <v>4264</v>
+        <v>2585</v>
       </c>
       <c r="F16">
-        <v>1862</v>
+        <v>-1428</v>
       </c>
       <c r="G16">
-        <v>13705</v>
+        <v>7438</v>
       </c>
       <c r="H16">
-        <v>26656</v>
+        <v>28651</v>
       </c>
       <c r="I16">
-        <v>3690</v>
+        <v>2662</v>
       </c>
       <c r="J16">
-        <v>6766</v>
+        <v>304</v>
       </c>
       <c r="K16">
-        <v>55</v>
+        <v>774</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,164 +2000,164 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5628</v>
+        <v>28601</v>
       </c>
       <c r="O16">
-        <v>15868</v>
+        <v>34597</v>
       </c>
       <c r="P16">
-        <v>6824</v>
+        <v>24165</v>
       </c>
       <c r="Q16">
-        <v>-672</v>
+        <v>235</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>39813</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>10788</v>
+        <v>-5946</v>
       </c>
       <c r="U16">
-        <v>2030</v>
+        <v>858</v>
       </c>
       <c r="V16">
-        <v>1797</v>
+        <v>1137</v>
       </c>
       <c r="W16">
-        <v>-370</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-2217</v>
+        <v>-726</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="AA16">
-        <v>1178</v>
+        <v>-7190</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>39903</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1258</v>
+        <v>-1016</v>
       </c>
       <c r="D17">
-        <v>12066</v>
+        <v>5900</v>
       </c>
       <c r="E17">
-        <v>4105</v>
+        <v>2710</v>
       </c>
       <c r="F17">
-        <v>1948</v>
+        <v>108</v>
       </c>
       <c r="G17">
-        <v>12932</v>
+        <v>7215</v>
       </c>
       <c r="H17">
-        <v>25631</v>
+        <v>27430</v>
       </c>
       <c r="I17">
-        <v>3431</v>
+        <v>1683</v>
       </c>
       <c r="J17">
-        <v>6756</v>
+        <v>8546</v>
       </c>
       <c r="K17">
-        <v>56</v>
+        <v>5613</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-129</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-1327</v>
       </c>
       <c r="N17">
-        <v>5634</v>
+        <v>19502</v>
       </c>
       <c r="O17">
-        <v>15756</v>
+        <v>34534</v>
       </c>
       <c r="P17">
-        <v>6814</v>
+        <v>24642</v>
       </c>
       <c r="Q17">
-        <v>-845</v>
+        <v>-168</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>39903</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>9875</v>
+        <v>-7104</v>
       </c>
       <c r="U17">
-        <v>1185</v>
+        <v>690</v>
       </c>
       <c r="V17">
-        <v>1434</v>
+        <v>-571</v>
       </c>
       <c r="W17">
-        <v>-358</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-1621</v>
+        <v>601</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-304</v>
+        <v>12</v>
       </c>
       <c r="AA17">
-        <v>1258</v>
+        <v>-1016</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>39994</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>793</v>
+        <v>-351</v>
       </c>
       <c r="D18">
-        <v>10290</v>
+        <v>7499</v>
       </c>
       <c r="E18">
-        <v>3448</v>
+        <v>3273</v>
       </c>
       <c r="F18">
-        <v>1301</v>
+        <v>341</v>
       </c>
       <c r="G18">
-        <v>11645</v>
+        <v>8076</v>
       </c>
       <c r="H18">
-        <v>24221</v>
+        <v>28175</v>
       </c>
       <c r="I18">
-        <v>3064</v>
+        <v>2909</v>
       </c>
       <c r="J18">
-        <v>6695</v>
+        <v>9864</v>
       </c>
       <c r="K18">
-        <v>269</v>
+        <v>5995</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2166,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5437</v>
+        <v>20376</v>
       </c>
       <c r="O18">
-        <v>15877</v>
+        <v>35556</v>
       </c>
       <c r="P18">
-        <v>7045</v>
+        <v>25204</v>
       </c>
       <c r="Q18">
-        <v>-154</v>
+        <v>56</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>39994</v>
       </c>
       <c r="S18">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>8344</v>
+        <v>-7381</v>
       </c>
       <c r="U18">
-        <v>1031</v>
+        <v>746</v>
       </c>
       <c r="V18">
-        <v>2016</v>
+        <v>-291</v>
       </c>
       <c r="W18">
-        <v>-348</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-1519</v>
+        <v>419</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-83</v>
+        <v>9</v>
       </c>
       <c r="AA18">
-        <v>793</v>
+        <v>-351</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>40086</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>1166</v>
+        <v>-650</v>
       </c>
       <c r="D19">
-        <v>8185</v>
+        <v>8612</v>
       </c>
       <c r="E19">
-        <v>3089</v>
+        <v>3374</v>
       </c>
       <c r="F19">
-        <v>1806</v>
+        <v>656</v>
       </c>
       <c r="G19">
-        <v>11647</v>
+        <v>7977</v>
       </c>
       <c r="H19">
-        <v>24006</v>
+        <v>27643</v>
       </c>
       <c r="I19">
-        <v>2631</v>
+        <v>1780</v>
       </c>
       <c r="J19">
-        <v>7749</v>
+        <v>18882</v>
       </c>
       <c r="K19">
-        <v>514</v>
+        <v>5912</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2249,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5060</v>
+        <v>9820</v>
       </c>
       <c r="O19">
-        <v>16500</v>
+        <v>35668</v>
       </c>
       <c r="P19">
-        <v>8267</v>
+        <v>25295</v>
       </c>
       <c r="Q19">
-        <v>585</v>
+        <v>-127</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>40086</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>7506</v>
+        <v>-8025</v>
       </c>
       <c r="U19">
-        <v>1616</v>
+        <v>619</v>
       </c>
       <c r="V19">
-        <v>1468</v>
+        <v>163</v>
       </c>
       <c r="W19">
-        <v>-334</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-401</v>
+        <v>-154</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="AA19">
-        <v>1166</v>
+        <v>-650</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>40178</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1330</v>
+        <v>-848</v>
       </c>
       <c r="D20">
-        <v>9145</v>
+        <v>8817</v>
       </c>
       <c r="E20">
-        <v>3373</v>
+        <v>3287</v>
       </c>
       <c r="F20">
-        <v>2098</v>
+        <v>216</v>
       </c>
       <c r="G20">
-        <v>11990</v>
+        <v>8252</v>
       </c>
       <c r="H20">
-        <v>24605</v>
+        <v>27761</v>
       </c>
       <c r="I20">
-        <v>2755</v>
+        <v>2730</v>
       </c>
       <c r="J20">
-        <v>7728</v>
+        <v>18675</v>
       </c>
       <c r="K20">
-        <v>582</v>
+        <v>6182</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,164 +2332,164 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5229</v>
+        <v>11686</v>
       </c>
       <c r="O20">
-        <v>16655</v>
+        <v>36608</v>
       </c>
       <c r="P20">
-        <v>8313</v>
+        <v>25555</v>
       </c>
       <c r="Q20">
-        <v>-291</v>
+        <v>-61</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>40178</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>14860</v>
       </c>
       <c r="T20">
-        <v>7950</v>
+        <v>-8847</v>
       </c>
       <c r="U20">
-        <v>1325</v>
+        <v>558</v>
       </c>
       <c r="V20">
-        <v>1446</v>
+        <v>-88</v>
       </c>
       <c r="W20">
-        <v>-368</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-1021</v>
+        <v>235</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-474</v>
+        <v>12</v>
       </c>
       <c r="AA20">
-        <v>1330</v>
+        <v>-848</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>40268</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1185</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>8334</v>
+        <v>9755</v>
       </c>
       <c r="E21">
-        <v>2924</v>
+        <v>3642</v>
       </c>
       <c r="F21">
-        <v>1869</v>
+        <v>648</v>
       </c>
       <c r="G21">
-        <v>11198</v>
+        <v>8717</v>
       </c>
       <c r="H21">
-        <v>23935</v>
+        <v>27585</v>
       </c>
       <c r="I21">
-        <v>2450</v>
+        <v>2697</v>
       </c>
       <c r="J21">
-        <v>7755</v>
+        <v>18826</v>
       </c>
       <c r="K21">
-        <v>573</v>
+        <v>6675</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="N21">
-        <v>5193</v>
+        <v>11743</v>
       </c>
       <c r="O21">
-        <v>16583</v>
+        <v>36449</v>
       </c>
       <c r="P21">
-        <v>8336</v>
+        <v>25988</v>
       </c>
       <c r="Q21">
-        <v>149</v>
+        <v>-21</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>40268</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>7352</v>
+        <v>-8864</v>
       </c>
       <c r="U21">
-        <v>1474</v>
+        <v>537</v>
       </c>
       <c r="V21">
-        <v>1768</v>
+        <v>-373</v>
       </c>
       <c r="W21">
-        <v>-361</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-1684</v>
+        <v>490</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>386</v>
+        <v>12</v>
       </c>
       <c r="AA21">
-        <v>1185</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>40359</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>795</v>
+        <v>8841</v>
       </c>
       <c r="D22">
-        <v>7071</v>
+        <v>10484</v>
       </c>
       <c r="E22">
-        <v>2517</v>
+        <v>3533</v>
       </c>
       <c r="F22">
-        <v>1279</v>
+        <v>1335</v>
       </c>
       <c r="G22">
-        <v>9789</v>
+        <v>12687</v>
       </c>
       <c r="H22">
-        <v>22757</v>
+        <v>24289</v>
       </c>
       <c r="I22">
-        <v>2182</v>
+        <v>2526</v>
       </c>
       <c r="J22">
-        <v>7677</v>
+        <v>6745</v>
       </c>
       <c r="K22">
-        <v>327</v>
+        <v>557</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2498,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4349</v>
+        <v>4734</v>
       </c>
       <c r="O22">
-        <v>16183</v>
+        <v>14359</v>
       </c>
       <c r="P22">
-        <v>8034</v>
+        <v>7310</v>
       </c>
       <c r="Q22">
-        <v>-550</v>
+        <v>3216</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>40359</v>
       </c>
       <c r="S22">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>6574</v>
+        <v>9930</v>
       </c>
       <c r="U22">
-        <v>924</v>
+        <v>3753</v>
       </c>
       <c r="V22">
-        <v>1160</v>
+        <v>553</v>
       </c>
       <c r="W22">
-        <v>-347</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-1744</v>
+        <v>2958</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>795</v>
+        <v>8896</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>40451</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1030</v>
+        <v>467</v>
       </c>
       <c r="D23">
-        <v>6743</v>
+        <v>10302</v>
       </c>
       <c r="E23">
-        <v>2683</v>
+        <v>3800</v>
       </c>
       <c r="F23">
-        <v>1577</v>
+        <v>1259</v>
       </c>
       <c r="G23">
-        <v>10324</v>
+        <v>13943</v>
       </c>
       <c r="H23">
-        <v>23572</v>
+        <v>26030</v>
       </c>
       <c r="I23">
-        <v>2243</v>
+        <v>2562</v>
       </c>
       <c r="J23">
-        <v>8608</v>
+        <v>6799</v>
       </c>
       <c r="K23">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2581,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4441</v>
+        <v>5047</v>
       </c>
       <c r="O23">
-        <v>17204</v>
+        <v>15087</v>
       </c>
       <c r="P23">
-        <v>9219</v>
+        <v>7325</v>
       </c>
       <c r="Q23">
-        <v>394</v>
+        <v>1079</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>40451</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>6368</v>
+        <v>10943</v>
       </c>
       <c r="U23">
-        <v>1318</v>
+        <v>4832</v>
       </c>
       <c r="V23">
-        <v>1300</v>
+        <v>1124</v>
       </c>
       <c r="W23">
-        <v>-336</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-333</v>
+        <v>-88</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-243</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>1030</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>40543</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>1091</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>7328</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2806</v>
+        <v>3747</v>
       </c>
       <c r="F24">
-        <v>1626</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>9983</v>
+        <v>13779</v>
       </c>
       <c r="H24">
-        <v>23435</v>
+        <v>25302</v>
       </c>
       <c r="I24">
-        <v>2357</v>
+        <v>2761</v>
       </c>
       <c r="J24">
-        <v>8641</v>
+        <v>6036</v>
       </c>
       <c r="K24">
-        <v>527</v>
+        <v>42</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2664,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4351</v>
+        <v>4831</v>
       </c>
       <c r="O24">
-        <v>17128</v>
+        <v>13706</v>
       </c>
       <c r="P24">
-        <v>9263</v>
+        <v>6082</v>
       </c>
       <c r="Q24">
-        <v>-261</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>40543</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="T24">
-        <v>6307</v>
+        <v>11596</v>
       </c>
       <c r="U24">
-        <v>1060</v>
+        <v>4222</v>
       </c>
       <c r="V24">
-        <v>1261</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>-362</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-1039</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>1091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>40633</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>952</v>
+        <v>663</v>
       </c>
       <c r="D25">
-        <v>7365</v>
+        <v>11380</v>
       </c>
       <c r="E25">
-        <v>2852</v>
+        <v>4764</v>
       </c>
       <c r="F25">
-        <v>1462</v>
+        <v>1343</v>
       </c>
       <c r="G25">
-        <v>9553</v>
+        <v>15973</v>
       </c>
       <c r="H25">
-        <v>23419</v>
+        <v>27948</v>
       </c>
       <c r="I25">
-        <v>2329</v>
+        <v>4099</v>
       </c>
       <c r="J25">
-        <v>8644</v>
+        <v>5805</v>
       </c>
       <c r="K25">
-        <v>504</v>
+        <v>51</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2747,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4310</v>
+        <v>6360</v>
       </c>
       <c r="O25">
-        <v>17312</v>
+        <v>15235</v>
       </c>
       <c r="P25">
-        <v>9270</v>
+        <v>6109</v>
       </c>
       <c r="Q25">
-        <v>-320</v>
+        <v>161</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>40633</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>6107</v>
+        <v>12713</v>
       </c>
       <c r="U25">
-        <v>740</v>
+        <v>4383</v>
       </c>
       <c r="V25">
-        <v>1332</v>
+        <v>221</v>
       </c>
       <c r="W25">
-        <v>-351</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-1195</v>
+        <v>28</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>952</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>40724</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>763</v>
+        <v>804</v>
       </c>
       <c r="D26">
-        <v>7747</v>
+        <v>13306</v>
       </c>
       <c r="E26">
-        <v>2842</v>
+        <v>4901</v>
       </c>
       <c r="F26">
-        <v>1327</v>
+        <v>1602</v>
       </c>
       <c r="G26">
-        <v>9599</v>
+        <v>16513</v>
       </c>
       <c r="H26">
-        <v>23442</v>
+        <v>28475</v>
       </c>
       <c r="I26">
-        <v>2529</v>
+        <v>3999</v>
       </c>
       <c r="J26">
-        <v>8405</v>
+        <v>5813</v>
       </c>
       <c r="K26">
-        <v>504</v>
+        <v>50</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2830,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>4540</v>
+        <v>5979</v>
       </c>
       <c r="O26">
-        <v>17369</v>
+        <v>14849</v>
       </c>
       <c r="P26">
-        <v>9001</v>
+        <v>5865</v>
       </c>
       <c r="Q26">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>40724</v>
       </c>
       <c r="S26">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>6073</v>
+        <v>13626</v>
       </c>
       <c r="U26">
-        <v>875</v>
+        <v>4687</v>
       </c>
       <c r="V26">
-        <v>1713</v>
+        <v>1026</v>
       </c>
       <c r="W26">
-        <v>-346</v>
+        <v>-57</v>
       </c>
       <c r="X26">
-        <v>-782</v>
+        <v>-327</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>763</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>40816</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>797</v>
+        <v>895</v>
       </c>
       <c r="D27">
-        <v>8430</v>
+        <v>12516</v>
       </c>
       <c r="E27">
-        <v>3292</v>
+        <v>4038</v>
       </c>
       <c r="F27">
-        <v>1439</v>
+        <v>1782</v>
       </c>
       <c r="G27">
-        <v>9681</v>
+        <v>16718</v>
       </c>
       <c r="H27">
-        <v>23768</v>
+        <v>28267</v>
       </c>
       <c r="I27">
-        <v>2627</v>
+        <v>3307</v>
       </c>
       <c r="J27">
-        <v>8437</v>
+        <v>5782</v>
       </c>
       <c r="K27">
-        <v>554</v>
+        <v>49</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>4379</v>
+        <v>5178</v>
       </c>
       <c r="O27">
-        <v>17281</v>
+        <v>14185</v>
       </c>
       <c r="P27">
-        <v>9050</v>
+        <v>5833</v>
       </c>
       <c r="Q27">
-        <v>-392</v>
+        <v>922</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>40816</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6487</v>
+        <v>14082</v>
       </c>
       <c r="U27">
-        <v>485</v>
+        <v>5609</v>
       </c>
       <c r="V27">
-        <v>678</v>
+        <v>1531</v>
       </c>
       <c r="W27">
-        <v>-343</v>
+        <v>-114</v>
       </c>
       <c r="X27">
-        <v>-537</v>
+        <v>-118</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>797</v>
+        <v>895</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>40908</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1131</v>
+        <v>-215</v>
       </c>
       <c r="D28">
-        <v>8403</v>
+        <v>10981</v>
       </c>
       <c r="E28">
-        <v>3086</v>
+        <v>3778</v>
       </c>
       <c r="F28">
-        <v>1802</v>
+        <v>724</v>
       </c>
       <c r="G28">
-        <v>10075</v>
+        <v>11435</v>
       </c>
       <c r="H28">
-        <v>24118</v>
+        <v>22839</v>
       </c>
       <c r="I28">
-        <v>2317</v>
+        <v>3414</v>
       </c>
       <c r="J28">
-        <v>8532</v>
+        <v>3980</v>
       </c>
       <c r="K28">
-        <v>502</v>
+        <v>48</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +2996,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4131</v>
+        <v>5018</v>
       </c>
       <c r="O28">
-        <v>17250</v>
+        <v>12192</v>
       </c>
       <c r="P28">
-        <v>9095</v>
+        <v>4032</v>
       </c>
       <c r="Q28">
-        <v>254</v>
+        <v>-4544</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>40908</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="T28">
-        <v>6868</v>
+        <v>10647</v>
       </c>
       <c r="U28">
-        <v>734</v>
+        <v>1065</v>
       </c>
       <c r="V28">
-        <v>1560</v>
+        <v>82</v>
       </c>
       <c r="W28">
-        <v>-361</v>
+        <v>-142</v>
       </c>
       <c r="X28">
-        <v>-822</v>
+        <v>-4538</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>1131</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>40999</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1057</v>
+        <v>600</v>
       </c>
       <c r="D29">
-        <v>8516</v>
+        <v>11734</v>
       </c>
       <c r="E29">
-        <v>3275</v>
+        <v>4209</v>
       </c>
       <c r="F29">
-        <v>1577</v>
+        <v>1202</v>
       </c>
       <c r="G29">
-        <v>11062</v>
+        <v>12098</v>
       </c>
       <c r="H29">
-        <v>25243</v>
+        <v>23609</v>
       </c>
       <c r="I29">
-        <v>2735</v>
+        <v>3545</v>
       </c>
       <c r="J29">
-        <v>8573</v>
+        <v>3984</v>
       </c>
       <c r="K29">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3079,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4612</v>
+        <v>4946</v>
       </c>
       <c r="O29">
-        <v>17916</v>
+        <v>12246</v>
       </c>
       <c r="P29">
-        <v>8957</v>
+        <v>4026</v>
       </c>
       <c r="Q29">
-        <v>471</v>
+        <v>605</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>40999</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>7327</v>
+        <v>11363</v>
       </c>
       <c r="U29">
-        <v>1204</v>
+        <v>1670</v>
       </c>
       <c r="V29">
-        <v>1486</v>
+        <v>913</v>
       </c>
       <c r="W29">
-        <v>-356</v>
+        <v>-143</v>
       </c>
       <c r="X29">
-        <v>-832</v>
+        <v>-140</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>1057</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>41090</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1894</v>
+        <v>770</v>
       </c>
       <c r="D30">
-        <v>9135</v>
+        <v>11248</v>
       </c>
       <c r="E30">
-        <v>3539</v>
+        <v>3888</v>
       </c>
       <c r="F30">
-        <v>1607</v>
+        <v>1587</v>
       </c>
       <c r="G30">
-        <v>11738</v>
+        <v>12366</v>
       </c>
       <c r="H30">
-        <v>26206</v>
+        <v>23545</v>
       </c>
       <c r="I30">
-        <v>2895</v>
+        <v>3004</v>
       </c>
       <c r="J30">
-        <v>8607</v>
+        <v>4305</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3162,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4777</v>
+        <v>4244</v>
       </c>
       <c r="O30">
-        <v>17256</v>
+        <v>12002</v>
       </c>
       <c r="P30">
-        <v>8682</v>
+        <v>4353</v>
       </c>
       <c r="Q30">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>41090</v>
       </c>
       <c r="S30">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>8950</v>
+        <v>11543</v>
       </c>
       <c r="U30">
-        <v>1523</v>
+        <v>1950</v>
       </c>
       <c r="V30">
-        <v>1482</v>
+        <v>504</v>
       </c>
       <c r="W30">
-        <v>-355</v>
+        <v>-230</v>
       </c>
       <c r="X30">
-        <v>-668</v>
+        <v>55</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,42 +3201,42 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>1894</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>41182</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1231</v>
+        <v>846</v>
       </c>
       <c r="D31">
-        <v>9767</v>
+        <v>11273</v>
       </c>
       <c r="E31">
-        <v>3859</v>
+        <v>4083</v>
       </c>
       <c r="F31">
-        <v>1755</v>
+        <v>1603</v>
       </c>
       <c r="G31">
-        <v>12068</v>
+        <v>13395</v>
       </c>
       <c r="H31">
-        <v>26896</v>
+        <v>25104</v>
       </c>
       <c r="I31">
-        <v>3010</v>
+        <v>3297</v>
       </c>
       <c r="J31">
-        <v>8598</v>
+        <v>4305</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3245,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>4598</v>
+        <v>4825</v>
       </c>
       <c r="O31">
-        <v>17167</v>
+        <v>12743</v>
       </c>
       <c r="P31">
-        <v>8685</v>
+        <v>4352</v>
       </c>
       <c r="Q31">
-        <v>312</v>
+        <v>1577</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>41182</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>9729</v>
+        <v>12361</v>
       </c>
       <c r="U31">
-        <v>1840</v>
+        <v>3527</v>
       </c>
       <c r="V31">
-        <v>1006</v>
+        <v>2042</v>
       </c>
       <c r="W31">
-        <v>-395</v>
+        <v>-230</v>
       </c>
       <c r="X31">
-        <v>-520</v>
+        <v>-234</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>1231</v>
+        <v>846</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>41274</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1654</v>
+        <v>632</v>
       </c>
       <c r="D32">
-        <v>10206</v>
+        <v>11097</v>
       </c>
       <c r="E32">
-        <v>3889</v>
+        <v>3904</v>
       </c>
       <c r="F32">
-        <v>1916</v>
+        <v>1362</v>
       </c>
       <c r="G32">
-        <v>12349</v>
+        <v>12286</v>
       </c>
       <c r="H32">
-        <v>27023</v>
+        <v>24220</v>
       </c>
       <c r="I32">
-        <v>3095</v>
+        <v>3285</v>
       </c>
       <c r="J32">
-        <v>7563</v>
+        <v>4304</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3328,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>5451</v>
+        <v>5096</v>
       </c>
       <c r="O32">
-        <v>16420</v>
+        <v>13041</v>
       </c>
       <c r="P32">
-        <v>8625</v>
+        <v>4400</v>
       </c>
       <c r="Q32">
-        <v>546</v>
+        <v>-795</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>41274</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="T32">
-        <v>10603</v>
+        <v>11179</v>
       </c>
       <c r="U32">
-        <v>2384</v>
+        <v>2732</v>
       </c>
       <c r="V32">
-        <v>1727</v>
+        <v>1328</v>
       </c>
       <c r="W32">
-        <v>-392</v>
+        <v>-230</v>
       </c>
       <c r="X32">
-        <v>-745</v>
+        <v>-1826</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>1654</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>41364</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1113</v>
+        <v>901</v>
       </c>
       <c r="D33">
-        <v>10155</v>
+        <v>10669</v>
       </c>
       <c r="E33">
-        <v>4087</v>
+        <v>3878</v>
       </c>
       <c r="F33">
-        <v>1656</v>
+        <v>1516</v>
       </c>
       <c r="G33">
-        <v>11383</v>
+        <v>12655</v>
       </c>
       <c r="H33">
-        <v>28696</v>
+        <v>24677</v>
       </c>
       <c r="I33">
-        <v>3555</v>
+        <v>3217</v>
       </c>
       <c r="J33">
-        <v>7557</v>
+        <v>4307</v>
       </c>
       <c r="K33">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3411,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>6242</v>
+        <v>5107</v>
       </c>
       <c r="O33">
-        <v>17504</v>
+        <v>12997</v>
       </c>
       <c r="P33">
-        <v>8765</v>
+        <v>4423</v>
       </c>
       <c r="Q33">
-        <v>-1854</v>
+        <v>147</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>41364</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>11192</v>
+        <v>11680</v>
       </c>
       <c r="U33">
-        <v>521</v>
+        <v>2879</v>
       </c>
       <c r="V33">
-        <v>1441</v>
+        <v>799</v>
       </c>
       <c r="W33">
-        <v>-389</v>
+        <v>-229</v>
       </c>
       <c r="X33">
-        <v>-977</v>
+        <v>-234</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>1113</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>41455</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>690</v>
+        <v>929</v>
       </c>
       <c r="D34">
-        <v>8876</v>
+        <v>11103</v>
       </c>
       <c r="E34">
-        <v>3503</v>
+        <v>4023</v>
       </c>
       <c r="F34">
-        <v>1148</v>
+        <v>1607</v>
       </c>
       <c r="G34">
-        <v>10566</v>
+        <v>13032</v>
       </c>
       <c r="H34">
-        <v>28278</v>
+        <v>25048</v>
       </c>
       <c r="I34">
-        <v>3087</v>
+        <v>3324</v>
       </c>
       <c r="J34">
-        <v>8542</v>
+        <v>4306</v>
       </c>
       <c r="K34">
-        <v>814</v>
+        <v>114</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3494,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>5513</v>
+        <v>5036</v>
       </c>
       <c r="O34">
-        <v>17882</v>
+        <v>12979</v>
       </c>
       <c r="P34">
-        <v>9448</v>
+        <v>4421</v>
       </c>
       <c r="Q34">
-        <v>-131</v>
+        <v>354</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>41455</v>
       </c>
       <c r="S34">
-        <v>19450</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>10396</v>
+        <v>12069</v>
       </c>
       <c r="U34">
-        <v>332</v>
+        <v>3233</v>
       </c>
       <c r="V34">
-        <v>1297</v>
+        <v>1246</v>
       </c>
       <c r="W34">
-        <v>-378</v>
+        <v>-261</v>
       </c>
       <c r="X34">
-        <v>-766</v>
+        <v>-508</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>690</v>
+        <v>929</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>41547</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>815</v>
+        <v>853</v>
       </c>
       <c r="D35">
-        <v>8778</v>
+        <v>11152</v>
       </c>
       <c r="E35">
-        <v>3680</v>
+        <v>4041</v>
       </c>
       <c r="F35">
-        <v>1332</v>
+        <v>1462</v>
       </c>
       <c r="G35">
-        <v>10286</v>
+        <v>14625</v>
       </c>
       <c r="H35">
-        <v>29889</v>
+        <v>26811</v>
       </c>
       <c r="I35">
-        <v>3187</v>
+        <v>3241</v>
       </c>
       <c r="J35">
-        <v>7563</v>
+        <v>5774</v>
       </c>
       <c r="K35">
-        <v>2254</v>
+        <v>114</v>
       </c>
       <c r="L35">
-        <v>-559</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>7012</v>
+        <v>5378</v>
       </c>
       <c r="O35">
-        <v>19613</v>
+        <v>14902</v>
       </c>
       <c r="P35">
-        <v>11553</v>
+        <v>5889</v>
       </c>
       <c r="Q35">
-        <v>-43</v>
+        <v>1181</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>41547</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>10276</v>
+        <v>11909</v>
       </c>
       <c r="U35">
-        <v>339</v>
+        <v>4414</v>
       </c>
       <c r="V35">
-        <v>657</v>
+        <v>1116</v>
       </c>
       <c r="W35">
-        <v>-372</v>
+        <v>-27</v>
       </c>
       <c r="X35">
-        <v>-521</v>
+        <v>452</v>
       </c>
       <c r="Y35">
-        <v>1282</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>815</v>
+        <v>853</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>41639</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1002</v>
+        <v>1174</v>
       </c>
       <c r="D36">
-        <v>9048</v>
+        <v>11138</v>
       </c>
       <c r="E36">
-        <v>3758</v>
+        <v>4030</v>
       </c>
       <c r="F36">
-        <v>1506</v>
+        <v>1537</v>
       </c>
       <c r="G36">
-        <v>11088</v>
+        <v>14599</v>
       </c>
       <c r="H36">
-        <v>31171</v>
+        <v>27298</v>
       </c>
       <c r="I36">
-        <v>3115</v>
+        <v>3572</v>
       </c>
       <c r="J36">
-        <v>7647</v>
+        <v>5776</v>
       </c>
       <c r="K36">
-        <v>2684</v>
+        <v>58</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3660,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>7538</v>
+        <v>5510</v>
       </c>
       <c r="O36">
-        <v>20312</v>
+        <v>14784</v>
       </c>
       <c r="P36">
-        <v>12170</v>
+        <v>5835</v>
       </c>
       <c r="Q36">
-        <v>950</v>
+        <v>36</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>41639</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="T36">
-        <v>10859</v>
+        <v>12514</v>
       </c>
       <c r="U36">
-        <v>1279</v>
+        <v>4450</v>
       </c>
       <c r="V36">
-        <v>1186</v>
+        <v>1674</v>
       </c>
       <c r="W36">
-        <v>-388</v>
+        <v>-610</v>
       </c>
       <c r="X36">
-        <v>39</v>
+        <v>-1299</v>
       </c>
       <c r="Y36">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>1002</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>41729</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>963</v>
+        <v>945</v>
       </c>
       <c r="D37">
-        <v>8722</v>
+        <v>11135</v>
       </c>
       <c r="E37">
-        <v>3469</v>
+        <v>4141</v>
       </c>
       <c r="F37">
-        <v>1453</v>
+        <v>1558</v>
       </c>
       <c r="G37">
-        <v>9630</v>
+        <v>14993</v>
       </c>
       <c r="H37">
-        <v>30114</v>
+        <v>27827</v>
       </c>
       <c r="I37">
-        <v>3201</v>
+        <v>3642</v>
       </c>
       <c r="J37">
-        <v>9745</v>
+        <v>6766</v>
       </c>
       <c r="K37">
-        <v>2314</v>
+        <v>58</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3743,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>7388</v>
+        <v>5720</v>
       </c>
       <c r="O37">
-        <v>22092</v>
+        <v>16001</v>
       </c>
       <c r="P37">
-        <v>13950</v>
+        <v>6827</v>
       </c>
       <c r="Q37">
-        <v>-796</v>
+        <v>-1748</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>41729</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>8022</v>
+        <v>11826</v>
       </c>
       <c r="U37">
-        <v>476</v>
+        <v>2702</v>
       </c>
       <c r="V37">
-        <v>1876</v>
+        <v>801</v>
       </c>
       <c r="W37">
-        <v>-351</v>
+        <v>-327</v>
       </c>
       <c r="X37">
-        <v>-1900</v>
+        <v>-550</v>
       </c>
       <c r="Y37">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-1397</v>
       </c>
       <c r="AA37">
-        <v>963</v>
+        <v>945</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>41820</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>610</v>
+        <v>1178</v>
       </c>
       <c r="D38">
-        <v>8179</v>
+        <v>12117</v>
       </c>
       <c r="E38">
-        <v>3102</v>
+        <v>4264</v>
       </c>
       <c r="F38">
-        <v>1135</v>
+        <v>1862</v>
       </c>
       <c r="G38">
-        <v>9510</v>
+        <v>13705</v>
       </c>
       <c r="H38">
-        <v>30435</v>
+        <v>26656</v>
       </c>
       <c r="I38">
-        <v>2928</v>
+        <v>3690</v>
       </c>
       <c r="J38">
-        <v>11691</v>
+        <v>6766</v>
       </c>
       <c r="K38">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3826,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>5198</v>
+        <v>5628</v>
       </c>
       <c r="O38">
-        <v>22256</v>
+        <v>15868</v>
       </c>
       <c r="P38">
-        <v>13782</v>
+        <v>6824</v>
       </c>
       <c r="Q38">
-        <v>376</v>
+        <v>-672</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>41820</v>
       </c>
       <c r="S38">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>8179</v>
+        <v>10788</v>
       </c>
       <c r="U38">
-        <v>858</v>
+        <v>2030</v>
       </c>
       <c r="V38">
-        <v>1242</v>
+        <v>1797</v>
       </c>
       <c r="W38">
-        <v>-351</v>
+        <v>-370</v>
       </c>
       <c r="X38">
-        <v>-453</v>
+        <v>-2217</v>
       </c>
       <c r="Y38">
-        <v>1216</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-141</v>
+        <v>96</v>
       </c>
       <c r="AA38">
-        <v>610</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>41912</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>142</v>
+        <v>1258</v>
       </c>
       <c r="D39">
-        <v>7494</v>
+        <v>12066</v>
       </c>
       <c r="E39">
-        <v>3043</v>
+        <v>4105</v>
       </c>
       <c r="F39">
-        <v>626</v>
+        <v>1948</v>
       </c>
       <c r="G39">
-        <v>9692</v>
+        <v>12932</v>
       </c>
       <c r="H39">
-        <v>31100</v>
+        <v>25631</v>
       </c>
       <c r="I39">
-        <v>2638</v>
+        <v>3431</v>
       </c>
       <c r="J39">
-        <v>12919</v>
+        <v>6756</v>
       </c>
       <c r="K39">
-        <v>1282</v>
+        <v>56</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3909,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>5521</v>
+        <v>5634</v>
       </c>
       <c r="O39">
-        <v>23641</v>
+        <v>15756</v>
       </c>
       <c r="P39">
-        <v>15612</v>
+        <v>6814</v>
       </c>
       <c r="Q39">
-        <v>745</v>
+        <v>-845</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>41912</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>7459</v>
+        <v>9875</v>
       </c>
       <c r="U39">
-        <v>1596</v>
+        <v>1185</v>
       </c>
       <c r="V39">
-        <v>542</v>
+        <v>1434</v>
       </c>
       <c r="W39">
-        <v>-351</v>
+        <v>-358</v>
       </c>
       <c r="X39">
-        <v>884</v>
+        <v>-1621</v>
       </c>
       <c r="Y39">
-        <v>1192</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-304</v>
       </c>
       <c r="AA39">
-        <v>142</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>42004</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>313</v>
+        <v>793</v>
       </c>
       <c r="D40">
-        <v>5546</v>
+        <v>10290</v>
       </c>
       <c r="E40">
-        <v>2588</v>
+        <v>3448</v>
       </c>
       <c r="F40">
-        <v>652</v>
+        <v>1301</v>
       </c>
       <c r="G40">
-        <v>10477</v>
+        <v>11645</v>
       </c>
       <c r="H40">
-        <v>31541</v>
+        <v>24221</v>
       </c>
       <c r="I40">
-        <v>2194</v>
+        <v>3064</v>
       </c>
       <c r="J40">
-        <v>14430</v>
+        <v>6695</v>
       </c>
       <c r="K40">
-        <v>500</v>
+        <v>269</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +3992,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4435</v>
+        <v>5437</v>
       </c>
       <c r="O40">
-        <v>24048</v>
+        <v>15877</v>
       </c>
       <c r="P40">
-        <v>16253</v>
+        <v>7045</v>
       </c>
       <c r="Q40">
-        <v>945</v>
+        <v>-154</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>42004</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>13100</v>
       </c>
       <c r="T40">
-        <v>7493</v>
+        <v>8344</v>
       </c>
       <c r="U40">
-        <v>2552</v>
+        <v>1031</v>
       </c>
       <c r="V40">
-        <v>1292</v>
+        <v>2016</v>
       </c>
       <c r="W40">
-        <v>-350</v>
+        <v>-348</v>
       </c>
       <c r="X40">
-        <v>684</v>
+        <v>-1519</v>
       </c>
       <c r="Y40">
-        <v>1160</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-454</v>
+        <v>-83</v>
       </c>
       <c r="AA40">
-        <v>313</v>
+        <v>793</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>42094</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>112</v>
+        <v>1166</v>
       </c>
       <c r="D41">
-        <v>6776</v>
+        <v>8185</v>
       </c>
       <c r="E41">
-        <v>2974</v>
+        <v>3089</v>
       </c>
       <c r="F41">
-        <v>891</v>
+        <v>1806</v>
       </c>
       <c r="G41">
-        <v>10759</v>
+        <v>11647</v>
       </c>
       <c r="H41">
-        <v>31949</v>
+        <v>24006</v>
       </c>
       <c r="I41">
-        <v>2479</v>
+        <v>2631</v>
       </c>
       <c r="J41">
-        <v>14414</v>
+        <v>7749</v>
       </c>
       <c r="K41">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4075,1954 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4782</v>
+        <v>5060</v>
       </c>
       <c r="O41">
-        <v>24510</v>
+        <v>16500</v>
       </c>
       <c r="P41">
-        <v>16154</v>
+        <v>8267</v>
       </c>
       <c r="Q41">
-        <v>-94</v>
+        <v>585</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>42094</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>7439</v>
+        <v>7506</v>
       </c>
       <c r="U41">
-        <v>2459</v>
+        <v>1616</v>
       </c>
       <c r="V41">
-        <v>827</v>
+        <v>1468</v>
       </c>
       <c r="W41">
-        <v>-352</v>
+        <v>-334</v>
       </c>
       <c r="X41">
-        <v>-376</v>
+        <v>-401</v>
       </c>
       <c r="Y41">
-        <v>1122</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-153</v>
+        <v>3</v>
       </c>
       <c r="AA41">
-        <v>112</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>42185</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1330</v>
       </c>
       <c r="D42">
+        <v>9145</v>
+      </c>
+      <c r="E42">
+        <v>3373</v>
+      </c>
+      <c r="F42">
+        <v>2098</v>
+      </c>
+      <c r="G42">
+        <v>11990</v>
+      </c>
+      <c r="H42">
+        <v>24605</v>
+      </c>
+      <c r="I42">
+        <v>2755</v>
+      </c>
+      <c r="J42">
+        <v>7728</v>
+      </c>
+      <c r="K42">
+        <v>582</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>5229</v>
+      </c>
+      <c r="O42">
+        <v>16655</v>
+      </c>
+      <c r="P42">
+        <v>8313</v>
+      </c>
+      <c r="Q42">
+        <v>-291</v>
+      </c>
+      <c r="R42">
+        <v>42185</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>7950</v>
+      </c>
+      <c r="U42">
+        <v>1325</v>
+      </c>
+      <c r="V42">
+        <v>1446</v>
+      </c>
+      <c r="W42">
+        <v>-368</v>
+      </c>
+      <c r="X42">
+        <v>-1021</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-474</v>
+      </c>
+      <c r="AA42">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>1185</v>
+      </c>
+      <c r="D43">
+        <v>8334</v>
+      </c>
+      <c r="E43">
+        <v>2924</v>
+      </c>
+      <c r="F43">
+        <v>1869</v>
+      </c>
+      <c r="G43">
+        <v>11198</v>
+      </c>
+      <c r="H43">
+        <v>23935</v>
+      </c>
+      <c r="I43">
+        <v>2450</v>
+      </c>
+      <c r="J43">
+        <v>7755</v>
+      </c>
+      <c r="K43">
+        <v>573</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>5193</v>
+      </c>
+      <c r="O43">
+        <v>16583</v>
+      </c>
+      <c r="P43">
+        <v>8336</v>
+      </c>
+      <c r="Q43">
+        <v>149</v>
+      </c>
+      <c r="R43">
+        <v>42277</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>7352</v>
+      </c>
+      <c r="U43">
+        <v>1474</v>
+      </c>
+      <c r="V43">
+        <v>1768</v>
+      </c>
+      <c r="W43">
+        <v>-361</v>
+      </c>
+      <c r="X43">
+        <v>-1684</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>386</v>
+      </c>
+      <c r="AA43">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>795</v>
+      </c>
+      <c r="D44">
+        <v>7071</v>
+      </c>
+      <c r="E44">
+        <v>2517</v>
+      </c>
+      <c r="F44">
+        <v>1279</v>
+      </c>
+      <c r="G44">
+        <v>9789</v>
+      </c>
+      <c r="H44">
+        <v>22757</v>
+      </c>
+      <c r="I44">
+        <v>2182</v>
+      </c>
+      <c r="J44">
+        <v>7677</v>
+      </c>
+      <c r="K44">
+        <v>327</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>4349</v>
+      </c>
+      <c r="O44">
+        <v>16183</v>
+      </c>
+      <c r="P44">
+        <v>8034</v>
+      </c>
+      <c r="Q44">
+        <v>-550</v>
+      </c>
+      <c r="R44">
+        <v>42369</v>
+      </c>
+      <c r="S44">
+        <v>13000</v>
+      </c>
+      <c r="T44">
+        <v>6574</v>
+      </c>
+      <c r="U44">
+        <v>924</v>
+      </c>
+      <c r="V44">
+        <v>1160</v>
+      </c>
+      <c r="W44">
+        <v>-347</v>
+      </c>
+      <c r="X44">
+        <v>-1744</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>501</v>
+      </c>
+      <c r="AA44">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>1030</v>
+      </c>
+      <c r="D45">
+        <v>6743</v>
+      </c>
+      <c r="E45">
+        <v>2683</v>
+      </c>
+      <c r="F45">
+        <v>1577</v>
+      </c>
+      <c r="G45">
+        <v>10324</v>
+      </c>
+      <c r="H45">
+        <v>23572</v>
+      </c>
+      <c r="I45">
+        <v>2243</v>
+      </c>
+      <c r="J45">
+        <v>8608</v>
+      </c>
+      <c r="K45">
+        <v>504</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4441</v>
+      </c>
+      <c r="O45">
+        <v>17204</v>
+      </c>
+      <c r="P45">
+        <v>9219</v>
+      </c>
+      <c r="Q45">
+        <v>394</v>
+      </c>
+      <c r="R45">
+        <v>42460</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>6368</v>
+      </c>
+      <c r="U45">
+        <v>1318</v>
+      </c>
+      <c r="V45">
+        <v>1300</v>
+      </c>
+      <c r="W45">
+        <v>-336</v>
+      </c>
+      <c r="X45">
+        <v>-333</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-243</v>
+      </c>
+      <c r="AA45">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1091</v>
+      </c>
+      <c r="D46">
+        <v>7328</v>
+      </c>
+      <c r="E46">
+        <v>2806</v>
+      </c>
+      <c r="F46">
+        <v>1626</v>
+      </c>
+      <c r="G46">
+        <v>9983</v>
+      </c>
+      <c r="H46">
+        <v>23435</v>
+      </c>
+      <c r="I46">
+        <v>2357</v>
+      </c>
+      <c r="J46">
+        <v>8641</v>
+      </c>
+      <c r="K46">
+        <v>527</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4351</v>
+      </c>
+      <c r="O46">
+        <v>17128</v>
+      </c>
+      <c r="P46">
+        <v>9263</v>
+      </c>
+      <c r="Q46">
+        <v>-261</v>
+      </c>
+      <c r="R46">
+        <v>42551</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>6307</v>
+      </c>
+      <c r="U46">
+        <v>1060</v>
+      </c>
+      <c r="V46">
+        <v>1261</v>
+      </c>
+      <c r="W46">
+        <v>-362</v>
+      </c>
+      <c r="X46">
+        <v>-1039</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>293</v>
+      </c>
+      <c r="AA46">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>952</v>
+      </c>
+      <c r="D47">
+        <v>7365</v>
+      </c>
+      <c r="E47">
+        <v>2852</v>
+      </c>
+      <c r="F47">
+        <v>1462</v>
+      </c>
+      <c r="G47">
+        <v>9553</v>
+      </c>
+      <c r="H47">
+        <v>23419</v>
+      </c>
+      <c r="I47">
+        <v>2329</v>
+      </c>
+      <c r="J47">
+        <v>8644</v>
+      </c>
+      <c r="K47">
+        <v>504</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>4310</v>
+      </c>
+      <c r="O47">
+        <v>17312</v>
+      </c>
+      <c r="P47">
+        <v>9270</v>
+      </c>
+      <c r="Q47">
+        <v>-320</v>
+      </c>
+      <c r="R47">
+        <v>42643</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>6107</v>
+      </c>
+      <c r="U47">
+        <v>740</v>
+      </c>
+      <c r="V47">
+        <v>1332</v>
+      </c>
+      <c r="W47">
+        <v>-351</v>
+      </c>
+      <c r="X47">
+        <v>-1195</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-32</v>
+      </c>
+      <c r="AA47">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>763</v>
+      </c>
+      <c r="D48">
+        <v>7747</v>
+      </c>
+      <c r="E48">
+        <v>2842</v>
+      </c>
+      <c r="F48">
+        <v>1327</v>
+      </c>
+      <c r="G48">
+        <v>9599</v>
+      </c>
+      <c r="H48">
+        <v>23442</v>
+      </c>
+      <c r="I48">
+        <v>2529</v>
+      </c>
+      <c r="J48">
+        <v>8405</v>
+      </c>
+      <c r="K48">
+        <v>504</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>4540</v>
+      </c>
+      <c r="O48">
+        <v>17369</v>
+      </c>
+      <c r="P48">
+        <v>9001</v>
+      </c>
+      <c r="Q48">
+        <v>134</v>
+      </c>
+      <c r="R48">
+        <v>42735</v>
+      </c>
+      <c r="S48">
+        <v>13000</v>
+      </c>
+      <c r="T48">
+        <v>6073</v>
+      </c>
+      <c r="U48">
+        <v>875</v>
+      </c>
+      <c r="V48">
+        <v>1713</v>
+      </c>
+      <c r="W48">
+        <v>-346</v>
+      </c>
+      <c r="X48">
+        <v>-782</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-72</v>
+      </c>
+      <c r="AA48">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>797</v>
+      </c>
+      <c r="D49">
+        <v>8430</v>
+      </c>
+      <c r="E49">
+        <v>3292</v>
+      </c>
+      <c r="F49">
+        <v>1439</v>
+      </c>
+      <c r="G49">
+        <v>9681</v>
+      </c>
+      <c r="H49">
+        <v>23768</v>
+      </c>
+      <c r="I49">
+        <v>2627</v>
+      </c>
+      <c r="J49">
+        <v>8437</v>
+      </c>
+      <c r="K49">
+        <v>554</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-1000</v>
+      </c>
+      <c r="N49">
+        <v>4379</v>
+      </c>
+      <c r="O49">
+        <v>17281</v>
+      </c>
+      <c r="P49">
+        <v>9050</v>
+      </c>
+      <c r="Q49">
+        <v>-392</v>
+      </c>
+      <c r="R49">
+        <v>42825</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>6487</v>
+      </c>
+      <c r="U49">
+        <v>485</v>
+      </c>
+      <c r="V49">
+        <v>678</v>
+      </c>
+      <c r="W49">
+        <v>-343</v>
+      </c>
+      <c r="X49">
+        <v>-537</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-26</v>
+      </c>
+      <c r="AA49">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1131</v>
+      </c>
+      <c r="D50">
+        <v>8403</v>
+      </c>
+      <c r="E50">
+        <v>3086</v>
+      </c>
+      <c r="F50">
+        <v>1802</v>
+      </c>
+      <c r="G50">
+        <v>10075</v>
+      </c>
+      <c r="H50">
+        <v>24118</v>
+      </c>
+      <c r="I50">
+        <v>2317</v>
+      </c>
+      <c r="J50">
+        <v>8532</v>
+      </c>
+      <c r="K50">
+        <v>502</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4131</v>
+      </c>
+      <c r="O50">
+        <v>17250</v>
+      </c>
+      <c r="P50">
+        <v>9095</v>
+      </c>
+      <c r="Q50">
+        <v>254</v>
+      </c>
+      <c r="R50">
+        <v>42916</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>6868</v>
+      </c>
+      <c r="U50">
+        <v>734</v>
+      </c>
+      <c r="V50">
+        <v>1560</v>
+      </c>
+      <c r="W50">
+        <v>-361</v>
+      </c>
+      <c r="X50">
+        <v>-822</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-65</v>
+      </c>
+      <c r="AA50">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1057</v>
+      </c>
+      <c r="D51">
+        <v>8516</v>
+      </c>
+      <c r="E51">
+        <v>3275</v>
+      </c>
+      <c r="F51">
+        <v>1577</v>
+      </c>
+      <c r="G51">
+        <v>11062</v>
+      </c>
+      <c r="H51">
+        <v>25243</v>
+      </c>
+      <c r="I51">
+        <v>2735</v>
+      </c>
+      <c r="J51">
+        <v>8573</v>
+      </c>
+      <c r="K51">
+        <v>322</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>4612</v>
+      </c>
+      <c r="O51">
+        <v>17916</v>
+      </c>
+      <c r="P51">
+        <v>8957</v>
+      </c>
+      <c r="Q51">
+        <v>471</v>
+      </c>
+      <c r="R51">
+        <v>43008</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7327</v>
+      </c>
+      <c r="U51">
+        <v>1204</v>
+      </c>
+      <c r="V51">
+        <v>1486</v>
+      </c>
+      <c r="W51">
+        <v>-356</v>
+      </c>
+      <c r="X51">
+        <v>-832</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>167</v>
+      </c>
+      <c r="AA51">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>1894</v>
+      </c>
+      <c r="D52">
+        <v>9135</v>
+      </c>
+      <c r="E52">
+        <v>3539</v>
+      </c>
+      <c r="F52">
+        <v>1607</v>
+      </c>
+      <c r="G52">
+        <v>11738</v>
+      </c>
+      <c r="H52">
+        <v>26206</v>
+      </c>
+      <c r="I52">
+        <v>2895</v>
+      </c>
+      <c r="J52">
+        <v>8607</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>4777</v>
+      </c>
+      <c r="O52">
+        <v>17256</v>
+      </c>
+      <c r="P52">
+        <v>8682</v>
+      </c>
+      <c r="Q52">
+        <v>317</v>
+      </c>
+      <c r="R52">
+        <v>43100</v>
+      </c>
+      <c r="S52">
+        <v>13400</v>
+      </c>
+      <c r="T52">
+        <v>8950</v>
+      </c>
+      <c r="U52">
+        <v>1523</v>
+      </c>
+      <c r="V52">
+        <v>1482</v>
+      </c>
+      <c r="W52">
+        <v>-355</v>
+      </c>
+      <c r="X52">
+        <v>-668</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1231</v>
+      </c>
+      <c r="D53">
+        <v>9767</v>
+      </c>
+      <c r="E53">
+        <v>3859</v>
+      </c>
+      <c r="F53">
+        <v>1755</v>
+      </c>
+      <c r="G53">
+        <v>12068</v>
+      </c>
+      <c r="H53">
+        <v>26896</v>
+      </c>
+      <c r="I53">
+        <v>3010</v>
+      </c>
+      <c r="J53">
+        <v>8598</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>4598</v>
+      </c>
+      <c r="O53">
+        <v>17167</v>
+      </c>
+      <c r="P53">
+        <v>8685</v>
+      </c>
+      <c r="Q53">
+        <v>312</v>
+      </c>
+      <c r="R53">
+        <v>43190</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>9729</v>
+      </c>
+      <c r="U53">
+        <v>1840</v>
+      </c>
+      <c r="V53">
+        <v>1006</v>
+      </c>
+      <c r="W53">
+        <v>-395</v>
+      </c>
+      <c r="X53">
+        <v>-520</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>285</v>
+      </c>
+      <c r="AA53">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>1654</v>
+      </c>
+      <c r="D54">
+        <v>10206</v>
+      </c>
+      <c r="E54">
+        <v>3889</v>
+      </c>
+      <c r="F54">
+        <v>1916</v>
+      </c>
+      <c r="G54">
+        <v>12349</v>
+      </c>
+      <c r="H54">
+        <v>27023</v>
+      </c>
+      <c r="I54">
+        <v>3095</v>
+      </c>
+      <c r="J54">
+        <v>7563</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>5451</v>
+      </c>
+      <c r="O54">
+        <v>16420</v>
+      </c>
+      <c r="P54">
+        <v>8625</v>
+      </c>
+      <c r="Q54">
+        <v>546</v>
+      </c>
+      <c r="R54">
+        <v>43281</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>10603</v>
+      </c>
+      <c r="U54">
+        <v>2384</v>
+      </c>
+      <c r="V54">
+        <v>1727</v>
+      </c>
+      <c r="W54">
+        <v>-392</v>
+      </c>
+      <c r="X54">
+        <v>-745</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>88</v>
+      </c>
+      <c r="AA54">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1113</v>
+      </c>
+      <c r="D55">
+        <v>10155</v>
+      </c>
+      <c r="E55">
+        <v>4087</v>
+      </c>
+      <c r="F55">
+        <v>1656</v>
+      </c>
+      <c r="G55">
+        <v>11383</v>
+      </c>
+      <c r="H55">
+        <v>28696</v>
+      </c>
+      <c r="I55">
+        <v>3555</v>
+      </c>
+      <c r="J55">
+        <v>7557</v>
+      </c>
+      <c r="K55">
+        <v>144</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>6242</v>
+      </c>
+      <c r="O55">
+        <v>17504</v>
+      </c>
+      <c r="P55">
+        <v>8765</v>
+      </c>
+      <c r="Q55">
+        <v>-1854</v>
+      </c>
+      <c r="R55">
+        <v>43373</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>11192</v>
+      </c>
+      <c r="U55">
+        <v>521</v>
+      </c>
+      <c r="V55">
+        <v>1441</v>
+      </c>
+      <c r="W55">
+        <v>-389</v>
+      </c>
+      <c r="X55">
+        <v>-977</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-13</v>
+      </c>
+      <c r="AA55">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>690</v>
+      </c>
+      <c r="D56">
+        <v>8876</v>
+      </c>
+      <c r="E56">
+        <v>3503</v>
+      </c>
+      <c r="F56">
+        <v>1148</v>
+      </c>
+      <c r="G56">
+        <v>10566</v>
+      </c>
+      <c r="H56">
+        <v>28278</v>
+      </c>
+      <c r="I56">
+        <v>3087</v>
+      </c>
+      <c r="J56">
+        <v>8542</v>
+      </c>
+      <c r="K56">
+        <v>814</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>5513</v>
+      </c>
+      <c r="O56">
+        <v>17882</v>
+      </c>
+      <c r="P56">
+        <v>9448</v>
+      </c>
+      <c r="Q56">
+        <v>-131</v>
+      </c>
+      <c r="R56">
+        <v>43465</v>
+      </c>
+      <c r="S56">
+        <v>19450</v>
+      </c>
+      <c r="T56">
+        <v>10396</v>
+      </c>
+      <c r="U56">
+        <v>332</v>
+      </c>
+      <c r="V56">
+        <v>1297</v>
+      </c>
+      <c r="W56">
+        <v>-378</v>
+      </c>
+      <c r="X56">
+        <v>-766</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>46</v>
+      </c>
+      <c r="AA56">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>815</v>
+      </c>
+      <c r="D57">
+        <v>8778</v>
+      </c>
+      <c r="E57">
+        <v>3680</v>
+      </c>
+      <c r="F57">
+        <v>1332</v>
+      </c>
+      <c r="G57">
+        <v>10286</v>
+      </c>
+      <c r="H57">
+        <v>29889</v>
+      </c>
+      <c r="I57">
+        <v>3187</v>
+      </c>
+      <c r="J57">
+        <v>7563</v>
+      </c>
+      <c r="K57">
+        <v>2254</v>
+      </c>
+      <c r="L57">
+        <v>-559</v>
+      </c>
+      <c r="M57">
+        <v>-1000</v>
+      </c>
+      <c r="N57">
+        <v>7012</v>
+      </c>
+      <c r="O57">
+        <v>19613</v>
+      </c>
+      <c r="P57">
+        <v>11553</v>
+      </c>
+      <c r="Q57">
+        <v>-43</v>
+      </c>
+      <c r="R57">
+        <v>43555</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>10276</v>
+      </c>
+      <c r="U57">
+        <v>339</v>
+      </c>
+      <c r="V57">
+        <v>657</v>
+      </c>
+      <c r="W57">
+        <v>-372</v>
+      </c>
+      <c r="X57">
+        <v>-521</v>
+      </c>
+      <c r="Y57">
+        <v>1282</v>
+      </c>
+      <c r="Z57">
+        <v>470</v>
+      </c>
+      <c r="AA57">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>1002</v>
+      </c>
+      <c r="D58">
+        <v>9048</v>
+      </c>
+      <c r="E58">
+        <v>3758</v>
+      </c>
+      <c r="F58">
+        <v>1506</v>
+      </c>
+      <c r="G58">
+        <v>11088</v>
+      </c>
+      <c r="H58">
+        <v>31171</v>
+      </c>
+      <c r="I58">
+        <v>3115</v>
+      </c>
+      <c r="J58">
+        <v>7647</v>
+      </c>
+      <c r="K58">
+        <v>2684</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>7538</v>
+      </c>
+      <c r="O58">
+        <v>20312</v>
+      </c>
+      <c r="P58">
+        <v>12170</v>
+      </c>
+      <c r="Q58">
+        <v>950</v>
+      </c>
+      <c r="R58">
+        <v>43646</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>10859</v>
+      </c>
+      <c r="U58">
+        <v>1279</v>
+      </c>
+      <c r="V58">
+        <v>1186</v>
+      </c>
+      <c r="W58">
+        <v>-388</v>
+      </c>
+      <c r="X58">
+        <v>39</v>
+      </c>
+      <c r="Y58">
+        <v>1304</v>
+      </c>
+      <c r="Z58">
+        <v>373</v>
+      </c>
+      <c r="AA58">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>963</v>
+      </c>
+      <c r="D59">
+        <v>8722</v>
+      </c>
+      <c r="E59">
+        <v>3469</v>
+      </c>
+      <c r="F59">
+        <v>1453</v>
+      </c>
+      <c r="G59">
+        <v>9630</v>
+      </c>
+      <c r="H59">
+        <v>30114</v>
+      </c>
+      <c r="I59">
+        <v>3201</v>
+      </c>
+      <c r="J59">
+        <v>9745</v>
+      </c>
+      <c r="K59">
+        <v>2314</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>7388</v>
+      </c>
+      <c r="O59">
+        <v>22092</v>
+      </c>
+      <c r="P59">
+        <v>13950</v>
+      </c>
+      <c r="Q59">
+        <v>-796</v>
+      </c>
+      <c r="R59">
+        <v>43738</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>8022</v>
+      </c>
+      <c r="U59">
+        <v>476</v>
+      </c>
+      <c r="V59">
+        <v>1876</v>
+      </c>
+      <c r="W59">
+        <v>-351</v>
+      </c>
+      <c r="X59">
+        <v>-1900</v>
+      </c>
+      <c r="Y59">
+        <v>1257</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>610</v>
+      </c>
+      <c r="D60">
+        <v>8179</v>
+      </c>
+      <c r="E60">
+        <v>3102</v>
+      </c>
+      <c r="F60">
+        <v>1135</v>
+      </c>
+      <c r="G60">
+        <v>9510</v>
+      </c>
+      <c r="H60">
+        <v>30435</v>
+      </c>
+      <c r="I60">
+        <v>2928</v>
+      </c>
+      <c r="J60">
+        <v>11691</v>
+      </c>
+      <c r="K60">
+        <v>264</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>5198</v>
+      </c>
+      <c r="O60">
+        <v>22256</v>
+      </c>
+      <c r="P60">
+        <v>13782</v>
+      </c>
+      <c r="Q60">
+        <v>376</v>
+      </c>
+      <c r="R60">
+        <v>43830</v>
+      </c>
+      <c r="S60">
+        <v>19100</v>
+      </c>
+      <c r="T60">
+        <v>8179</v>
+      </c>
+      <c r="U60">
+        <v>858</v>
+      </c>
+      <c r="V60">
+        <v>1242</v>
+      </c>
+      <c r="W60">
+        <v>-351</v>
+      </c>
+      <c r="X60">
+        <v>-453</v>
+      </c>
+      <c r="Y60">
+        <v>1216</v>
+      </c>
+      <c r="Z60">
+        <v>-141</v>
+      </c>
+      <c r="AA60">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>142</v>
+      </c>
+      <c r="D61">
+        <v>7494</v>
+      </c>
+      <c r="E61">
+        <v>3043</v>
+      </c>
+      <c r="F61">
+        <v>626</v>
+      </c>
+      <c r="G61">
+        <v>9692</v>
+      </c>
+      <c r="H61">
+        <v>31100</v>
+      </c>
+      <c r="I61">
+        <v>2638</v>
+      </c>
+      <c r="J61">
+        <v>12919</v>
+      </c>
+      <c r="K61">
+        <v>1282</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>5521</v>
+      </c>
+      <c r="O61">
+        <v>23641</v>
+      </c>
+      <c r="P61">
+        <v>15612</v>
+      </c>
+      <c r="Q61">
+        <v>745</v>
+      </c>
+      <c r="R61">
+        <v>43921</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>7459</v>
+      </c>
+      <c r="U61">
+        <v>1596</v>
+      </c>
+      <c r="V61">
+        <v>542</v>
+      </c>
+      <c r="W61">
+        <v>-351</v>
+      </c>
+      <c r="X61">
+        <v>884</v>
+      </c>
+      <c r="Y61">
+        <v>1192</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>313</v>
+      </c>
+      <c r="D62">
+        <v>5546</v>
+      </c>
+      <c r="E62">
+        <v>2588</v>
+      </c>
+      <c r="F62">
+        <v>652</v>
+      </c>
+      <c r="G62">
+        <v>10477</v>
+      </c>
+      <c r="H62">
+        <v>31541</v>
+      </c>
+      <c r="I62">
+        <v>2194</v>
+      </c>
+      <c r="J62">
+        <v>14430</v>
+      </c>
+      <c r="K62">
+        <v>500</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4435</v>
+      </c>
+      <c r="O62">
+        <v>24048</v>
+      </c>
+      <c r="P62">
+        <v>16253</v>
+      </c>
+      <c r="Q62">
+        <v>945</v>
+      </c>
+      <c r="R62">
+        <v>44012</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>7493</v>
+      </c>
+      <c r="U62">
+        <v>2552</v>
+      </c>
+      <c r="V62">
+        <v>1292</v>
+      </c>
+      <c r="W62">
+        <v>-350</v>
+      </c>
+      <c r="X62">
+        <v>684</v>
+      </c>
+      <c r="Y62">
+        <v>1160</v>
+      </c>
+      <c r="Z62">
+        <v>-454</v>
+      </c>
+      <c r="AA62">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>112</v>
+      </c>
+      <c r="D63">
+        <v>6776</v>
+      </c>
+      <c r="E63">
+        <v>2974</v>
+      </c>
+      <c r="F63">
+        <v>891</v>
+      </c>
+      <c r="G63">
+        <v>10759</v>
+      </c>
+      <c r="H63">
+        <v>31949</v>
+      </c>
+      <c r="I63">
+        <v>2479</v>
+      </c>
+      <c r="J63">
+        <v>14414</v>
+      </c>
+      <c r="K63">
+        <v>478</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>4782</v>
+      </c>
+      <c r="O63">
+        <v>24510</v>
+      </c>
+      <c r="P63">
+        <v>16154</v>
+      </c>
+      <c r="Q63">
+        <v>-94</v>
+      </c>
+      <c r="R63">
+        <v>44104</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7439</v>
+      </c>
+      <c r="U63">
+        <v>2459</v>
+      </c>
+      <c r="V63">
+        <v>827</v>
+      </c>
+      <c r="W63">
+        <v>-352</v>
+      </c>
+      <c r="X63">
+        <v>-376</v>
+      </c>
+      <c r="Y63">
+        <v>1122</v>
+      </c>
+      <c r="Z63">
+        <v>-153</v>
+      </c>
+      <c r="AA63">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
         <v>7937</v>
       </c>
-      <c r="E42">
+      <c r="E64">
         <v>3441</v>
       </c>
-      <c r="F42">
+      <c r="F64">
         <v>1225</v>
       </c>
-      <c r="G42">
+      <c r="G64">
         <v>11634</v>
       </c>
-      <c r="H42">
+      <c r="H64">
         <v>35403</v>
       </c>
-      <c r="I42">
+      <c r="I64">
         <v>2948</v>
       </c>
-      <c r="J42">
+      <c r="J64">
         <v>15629</v>
       </c>
-      <c r="K42">
+      <c r="K64">
         <v>523</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
         <v>5502</v>
       </c>
-      <c r="O42">
+      <c r="O64">
         <v>27299</v>
       </c>
-      <c r="P42">
+      <c r="P64">
         <v>17832</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S64">
         <v>19200</v>
       </c>
-      <c r="T42">
+      <c r="T64">
         <v>8104</v>
       </c>
-      <c r="U42">
+      <c r="U64">
         <v>1763</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
         <v>1222</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
         <v>853</v>
       </c>
     </row>
